--- a/Documentation/R Microsim Model - Parameter Dictionary.xlsx
+++ b/Documentation/R Microsim Model - Parameter Dictionary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="315">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -121,12 +121,6 @@
     <t xml:space="preserve"> Number of employees working at their employer</t>
   </si>
   <si>
-    <t xml:space="preserve"> weightfactor </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Multiply ACS weights by a certain number</t>
-  </si>
-  <si>
     <t xml:space="preserve"> random_seed </t>
   </si>
   <si>
@@ -461,9 +455,6 @@
   </si>
   <si>
     <t>Minimum Firm Size</t>
-  </si>
-  <si>
-    <t>Weight Factor</t>
   </si>
   <si>
     <t>Random Seed</t>
@@ -1105,8 +1096,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I87" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I86" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I86"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -1397,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,28 +1414,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
@@ -1452,28 +1443,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1482,10 +1473,10 @@
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
@@ -1496,10 +1487,10 @@
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
@@ -1509,51 +1500,51 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1561,31 +1552,31 @@
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1593,22 +1584,22 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -1619,31 +1610,31 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -1651,25 +1642,25 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -1677,10 +1668,10 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1689,13 +1680,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -1703,25 +1694,25 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H16" s="4" t="b">
         <v>0</v>
@@ -1732,34 +1723,34 @@
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="F17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -1767,25 +1758,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -1793,25 +1784,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -1819,25 +1810,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -1845,25 +1836,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -1871,25 +1862,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -1897,10 +1888,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -1909,10 +1900,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -1920,54 +1911,54 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" s="4" t="b">
         <v>1</v>
@@ -1978,34 +1969,34 @@
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -2013,25 +2004,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -2039,25 +2030,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -2065,22 +2056,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" s="4">
         <v>60</v>
@@ -2088,22 +2079,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H32" s="4">
         <v>60</v>
@@ -2111,22 +2102,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H33" s="4">
         <v>60</v>
@@ -2134,22 +2125,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H34" s="4">
         <v>60</v>
@@ -2157,22 +2148,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H35" s="4">
         <v>60</v>
@@ -2180,22 +2171,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H36" s="4">
         <v>60</v>
@@ -2203,22 +2194,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H37" s="4">
         <v>240</v>
@@ -2226,22 +2217,22 @@
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H38" s="4">
         <v>120</v>
@@ -2249,22 +2240,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H39" s="4">
         <v>360</v>
@@ -2272,10 +2263,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>19</v>
@@ -2284,10 +2275,10 @@
         <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H40" s="4">
         <v>1000000</v>
@@ -2295,10 +2286,10 @@
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>21</v>
@@ -2307,34 +2298,34 @@
         <v>22</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -2342,25 +2333,25 @@
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H43" s="4" t="b">
         <v>1</v>
@@ -2371,45 +2362,45 @@
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>25</v>
@@ -2418,24 +2409,24 @@
         <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>27</v>
@@ -2444,24 +2435,24 @@
         <v>28</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>29</v>
@@ -2470,24 +2461,24 @@
         <v>30</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>31</v>
@@ -2496,400 +2487,401 @@
         <v>32</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="4">
+        <v>69</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>104</v>
+      <c r="G50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="5" t="b">
+      <c r="D51" s="2"/>
+      <c r="F51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="2"/>
-      <c r="F52" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="5" t="b">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="F53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="F54" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="5" t="b">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+      <c r="F55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="F56" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" s="5" t="b">
-        <v>1</v>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="F57" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H58" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="H61" s="5"/>
       <c r="I61" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H62" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
       <c r="I62" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H64" s="4">
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H65" s="4">
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H66" s="4">
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>184</v>
@@ -2898,61 +2890,48 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="F69" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H69" s="4">
-        <v>3</v>
+        <v>191</v>
+      </c>
+      <c r="H69" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="2"/>
+      <c r="F70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H70" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="F71" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="C71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" s="5"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -2961,7 +2940,7 @@
         <v>196</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F72" s="5"/>
       <c r="H72" s="4"/>
@@ -2969,258 +2948,247 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="F74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="F75" s="5" t="s">
+      <c r="C75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F75" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="G75" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H75" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="F76" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="F77" s="5" t="s">
+      <c r="C77" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="F78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
-      <c r="F79" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>315</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>299</v>
       </c>
+      <c r="G82" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="H82" s="4" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
       <c r="F83" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
-      <c r="F85" s="5" t="s">
-        <v>304</v>
+      <c r="C85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="H85" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
+      <c r="F86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H86" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="2"/>
-      <c r="F87" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H87" s="4"/>
+      <c r="H86" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3242,28 +3210,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -3271,69 +3239,69 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3359,675 +3327,675 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
         <v>221</v>
-      </c>
-      <c r="C4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
         <v>226</v>
-      </c>
-      <c r="C8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
         <v>228</v>
-      </c>
-      <c r="B9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" t="s">
         <v>245</v>
-      </c>
-      <c r="B28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
         <v>256</v>
-      </c>
-      <c r="C32" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
         <v>258</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
         <v>260</v>
-      </c>
-      <c r="B34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s">
         <v>262</v>
-      </c>
-      <c r="B35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C35" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
         <v>264</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
         <v>266</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
         <v>268</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
         <v>270</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/R Microsim Model - Parameter Dictionary.xlsx
+++ b/Documentation/R Microsim Model - Parameter Dictionary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="316">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>Proportion of dual receivers in the population</t>
+  </si>
+  <si>
+    <t>Takes precedence over any uptake_* parameter values fed into the model for leave needers</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,6 +1719,9 @@
       </c>
       <c r="H16" s="4" t="b">
         <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">

--- a/Documentation/R Microsim Model - Parameter Dictionary.xlsx
+++ b/Documentation/R Microsim Model - Parameter Dictionary.xlsx
@@ -61,9 +61,6 @@
     <t xml:space="preserve"> weekly dependent allowance for those with children</t>
   </si>
   <si>
-    <t xml:space="preserve"> full_particip_needer </t>
-  </si>
-  <si>
     <t xml:space="preserve"> waiting_period </t>
   </si>
   <si>
@@ -203,9 +200,6 @@
   </si>
   <si>
     <t>weekly dollars received for participants with dependents</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> whether or not leave needers always take up benefits</t>
   </si>
   <si>
     <t>Leave needers always take up</t>
@@ -980,6 +974,12 @@
   </si>
   <si>
     <t>Takes precedence over any uptake_* parameter values fed into the model for leave needers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> full_particip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> whether or not leave needers/takers always take up benefits</t>
   </si>
 </sst>
 </file>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,28 +1417,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
@@ -1446,28 +1446,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1476,10 +1476,10 @@
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
@@ -1490,10 +1490,10 @@
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
@@ -1503,51 +1503,51 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,31 +1555,31 @@
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1587,22 +1587,22 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -1613,31 +1613,31 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -1645,25 +1645,25 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1683,13 +1683,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -1697,66 +1697,66 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -1764,25 +1764,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -1790,25 +1790,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -1816,25 +1816,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -1842,25 +1842,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -1868,25 +1868,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -1894,22 +1894,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -1917,54 +1917,54 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" s="4" t="b">
         <v>1</v>
@@ -1975,34 +1975,34 @@
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -2010,25 +2010,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -2036,25 +2036,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -2062,22 +2062,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H31" s="4">
         <v>60</v>
@@ -2085,22 +2085,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H32" s="4">
         <v>60</v>
@@ -2108,22 +2108,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H33" s="4">
         <v>60</v>
@@ -2131,22 +2131,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H34" s="4">
         <v>60</v>
@@ -2154,22 +2154,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H35" s="4">
         <v>60</v>
@@ -2177,22 +2177,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H36" s="4">
         <v>60</v>
@@ -2200,22 +2200,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H37" s="4">
         <v>240</v>
@@ -2223,22 +2223,22 @@
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H38" s="4">
         <v>120</v>
@@ -2246,22 +2246,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H39" s="4">
         <v>360</v>
@@ -2269,22 +2269,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H40" s="4">
         <v>1000000</v>
@@ -2292,46 +2292,46 @@
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -2339,25 +2339,25 @@
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H43" s="4" t="b">
         <v>1</v>
@@ -2368,191 +2368,191 @@
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2560,31 +2560,31 @@
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
       <c r="F53" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F54" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2592,31 +2592,31 @@
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2624,297 +2624,297 @@
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="F57" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="H60" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H64" s="4">
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H65" s="4">
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H66" s="4">
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H68" s="4">
         <v>3</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H69" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -2922,20 +2922,20 @@
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
       <c r="F70" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F71" s="5"/>
       <c r="H71" s="4"/>
@@ -2943,10 +2943,10 @@
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F72" s="5"/>
       <c r="H72" s="4"/>
@@ -2954,25 +2954,25 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F73" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -2980,32 +2980,32 @@
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
       <c r="F74" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="H75" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -3013,29 +3013,29 @@
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
       <c r="F76" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F77" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -3043,28 +3043,28 @@
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="F78" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="H79" s="4">
         <v>1</v>
@@ -3073,70 +3073,70 @@
     <row r="80" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="G80" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H80" s="4" t="s">
+      <c r="I80" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="I81" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H83" s="4"/>
     </row>
@@ -3156,29 +3156,29 @@
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F85" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H85" s="4" t="b">
         <v>1</v>
@@ -3189,10 +3189,10 @@
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
       <c r="F86" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H86" s="4"/>
     </row>
@@ -3216,28 +3216,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -3245,69 +3245,69 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3333,675 +3333,675 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
         <v>227</v>
-      </c>
-      <c r="B10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
         <v>230</v>
-      </c>
-      <c r="B16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
         <v>233</v>
-      </c>
-      <c r="B18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" t="s">
         <v>234</v>
-      </c>
-      <c r="C19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
         <v>237</v>
-      </c>
-      <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" t="s">
         <v>269</v>
-      </c>
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" t="s">
         <v>156</v>
-      </c>
-      <c r="B45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
         <v>157</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" t="s">
         <v>201</v>
-      </c>
-      <c r="B60" t="s">
-        <v>275</v>
-      </c>
-      <c r="C60" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/R Microsim Model - Parameter Dictionary.xlsx
+++ b/Documentation/R Microsim Model - Parameter Dictionary.xlsx
@@ -16,7 +16,7 @@
     <sheet name="old params" sheetId="3" r:id="rId2"/>
     <sheet name="report exhibit" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="340">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -980,6 +980,78 @@
   </si>
   <si>
     <t xml:space="preserve"> whether or not leave needers/takers always take up benefits</t>
+  </si>
+  <si>
+    <t>ABF_elig_size</t>
+  </si>
+  <si>
+    <t>ABF_max_tax_earn</t>
+  </si>
+  <si>
+    <t>ABF_bene_tax</t>
+  </si>
+  <si>
+    <t>ABF_avg_state_tax</t>
+  </si>
+  <si>
+    <t>ABF_payroll_tax</t>
+  </si>
+  <si>
+    <t>Naïve_Bayes</t>
+  </si>
+  <si>
+    <t>xg_boost</t>
+  </si>
+  <si>
+    <t>svm</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>Naïve Bayes Classifier</t>
+  </si>
+  <si>
+    <t>Support Vector Machine Classifier</t>
+  </si>
+  <si>
+    <t>XGBoost Classifier</t>
+  </si>
+  <si>
+    <t>Random selection</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>The minimum size of the firm to be eligible for ABF taxation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum amount of wages that are taxable </t>
+  </si>
+  <si>
+    <t>Whether program benefits are taxed or not</t>
+  </si>
+  <si>
+    <t>Percentage of taxable wages that are collected as part of program taxation</t>
+  </si>
+  <si>
+    <t>Average state tax rate on income generally. This is used to calulate dollars recouped from taxing program benefits</t>
+  </si>
+  <si>
+    <t>Enable benefit taxation</t>
+  </si>
+  <si>
+    <t>Disable benefit taxation</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Max taxable wages</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I86" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I97" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I97"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -1391,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1539,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1498,230 +1570,184 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="5" t="b">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>330</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="4">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I13" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="F14" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>314</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="F16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,22 +1758,22 @@
         <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>305</v>
@@ -1755,126 +1781,112 @@
       <c r="F18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
       <c r="F22" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>91</v>
@@ -1894,106 +1906,120 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="5" t="b">
+        <v>305</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="4" t="b">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>305</v>
@@ -2002,24 +2028,24 @@
         <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>305</v>
@@ -2027,120 +2053,115 @@
       <c r="F29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="4">
-        <v>60</v>
+      <c r="G31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
       <c r="F32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H33" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>305</v>
@@ -2148,42 +2169,48 @@
       <c r="F34" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H34" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>67</v>
+        <v>210</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H35" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>87</v>
@@ -2200,16 +2227,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>305</v>
@@ -2218,21 +2245,21 @@
         <v>67</v>
       </c>
       <c r="H37" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>305</v>
@@ -2241,21 +2268,21 @@
         <v>67</v>
       </c>
       <c r="H38" s="4">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>305</v>
@@ -2264,129 +2291,136 @@
         <v>67</v>
       </c>
       <c r="H39" s="4">
-        <v>360</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H41" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="4">
         <v>120</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="H44" s="4">
+        <v>360</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>101</v>
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>305</v>
@@ -2394,31 +2428,28 @@
       <c r="F45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>95</v>
@@ -2427,428 +2458,419 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="F49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="E52" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="E53" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E54" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="5" t="b">
+      <c r="F55" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="2"/>
-      <c r="F51" s="5" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+      <c r="F56" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="5" t="b">
+      <c r="F57" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="F53" s="5" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="F58" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="5" t="b">
+      <c r="F59" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="F55" s="5" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="F60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="5" t="b">
+      <c r="F61" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="F57" s="5" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="2"/>
+      <c r="F62" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H62" s="4">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="4">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H66" s="4">
-        <v>1</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H66" s="5"/>
       <c r="I66" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>177</v>
@@ -2869,274 +2891,293 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H68" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="5" t="b">
+        <v>305</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="4">
         <v>1</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H69" s="5" t="b">
+      <c r="I69" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="4">
         <v>1</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="F70" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="H72" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="5" t="b">
-        <v>1</v>
+        <v>305</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>39</v>
+        <v>180</v>
+      </c>
+      <c r="H73" s="4">
+        <v>3</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
-      <c r="F74" s="5" t="s">
-        <v>39</v>
+      <c r="C74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H74" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="H74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>304</v>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="F75" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>95</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
-      <c r="F76" s="5" t="s">
-        <v>277</v>
-      </c>
+      <c r="C76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="5"/>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
-      <c r="F78" s="5" t="s">
+      <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H78" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>310</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="I78" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
       <c r="F79" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>284</v>
+        <v>41</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
       <c r="F81" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>295</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>297</v>
+        <v>47</v>
+      </c>
+      <c r="F82" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -3144,62 +3185,281 @@
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5" t="s">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
+      <c r="C84" t="s">
+        <v>310</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F84" s="5" t="s">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>307</v>
+        <v>282</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="5" t="b">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H85" s="4" t="b">
-        <v>1</v>
+        <v>286</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F86" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+      <c r="F88" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="F89" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H90" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+      <c r="F91" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H86" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H94" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="F95" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/R Microsim Model - Parameter Dictionary.xlsx
+++ b/Documentation/R Microsim Model - Parameter Dictionary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="338">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -1003,9 +1003,6 @@
     <t>xg_boost</t>
   </si>
   <si>
-    <t>svm</t>
-  </si>
-  <si>
     <t>random</t>
   </si>
   <si>
@@ -1013,9 +1010,6 @@
   </si>
   <si>
     <t>Naïve Bayes Classifier</t>
-  </si>
-  <si>
-    <t>Support Vector Machine Classifier</t>
   </si>
   <si>
     <t>XGBoost Classifier</t>
@@ -1171,8 +1165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I97" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I96" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I96"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -1463,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F10" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1573,7 @@
         <v>321</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
@@ -1593,7 +1587,7 @@
         <v>322</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
@@ -1621,165 +1615,177 @@
         <v>324</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5" t="s">
-        <v>325</v>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="4" t="b">
+      <c r="H17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -1787,25 +1793,25 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -1813,80 +1819,80 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="4">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="5" t="b">
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>91</v>
@@ -1906,13 +1912,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>91</v>
@@ -1932,13 +1938,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>91</v>
@@ -1958,13 +1964,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>91</v>
@@ -1984,13 +1990,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>91</v>
@@ -2010,141 +2016,141 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="F32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -2152,65 +2158,62 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H35" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>87</v>
@@ -2227,13 +2230,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>87</v>
@@ -2250,13 +2253,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>87</v>
@@ -2273,13 +2276,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>87</v>
@@ -2296,13 +2299,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>87</v>
@@ -2319,16 +2322,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>305</v>
@@ -2337,21 +2340,21 @@
         <v>67</v>
       </c>
       <c r="H41" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>305</v>
@@ -2360,21 +2363,21 @@
         <v>67</v>
       </c>
       <c r="H42" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>305</v>
@@ -2383,158 +2386,161 @@
         <v>67</v>
       </c>
       <c r="H43" s="4">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H44" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="4">
-        <v>1000000</v>
+        <v>49</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="F48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="F49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>95</v>
@@ -2545,16 +2551,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>305</v>
@@ -2571,16 +2577,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>305</v>
@@ -2597,16 +2603,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>305</v>
@@ -2622,170 +2628,168 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>31</v>
+        <v>104</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+      <c r="F55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="F57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
+      <c r="F59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="F61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="2"/>
-      <c r="F56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="F58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="F60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H62" s="4"/>
+      <c r="I62" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>160</v>
@@ -2797,80 +2801,80 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H66" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
       <c r="I66" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>177</v>
@@ -2894,7 +2898,7 @@
     <row r="68" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>177</v>
@@ -2918,7 +2922,7 @@
     <row r="69" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>177</v>
@@ -2942,7 +2946,7 @@
     <row r="70" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>177</v>
@@ -2966,7 +2970,7 @@
     <row r="71" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>177</v>
@@ -2987,94 +2991,81 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H72" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="F73" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H73" s="4">
-        <v>3</v>
+        <v>189</v>
+      </c>
+      <c r="H73" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="5" t="b">
-        <v>1</v>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="F74" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H74" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="F75" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="C75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="5"/>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>192</v>
@@ -3085,266 +3076,276 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F77" s="5"/>
-      <c r="H77" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="5" t="b">
-        <v>1</v>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="F78" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>292</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
-      <c r="F79" s="5" t="s">
-        <v>39</v>
+      <c r="C79" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H79" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="F80" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="2"/>
-      <c r="F81" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H81" s="4"/>
+      <c r="C81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="5" t="b">
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="F82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>310</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H83" s="4">
         <v>1</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
-      <c r="F83" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>310</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>311</v>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
       <c r="F87" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
       <c r="F88" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
-      <c r="F89" s="5" t="s">
-        <v>299</v>
+      <c r="C89" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="H89" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="5" t="b">
-        <v>1</v>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="F90" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H90" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
+      <c r="C91" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F91" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H91" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
-        <v>316</v>
+      <c r="C92" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>305</v>
@@ -3353,7 +3354,7 @@
         <v>67</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="H92" s="4">
         <v>0</v>
@@ -3361,65 +3362,65 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
-      <c r="C93" s="2" t="s">
-        <v>317</v>
+      <c r="C93" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="F93" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H93" s="4">
-        <v>0</v>
+        <v>334</v>
+      </c>
+      <c r="H93" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" s="5" t="b">
-        <v>1</v>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="F94" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H94" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="2"/>
+      <c r="C95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F95" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H95" s="4"/>
+        <v>336</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>305</v>
@@ -3428,30 +3429,9 @@
         <v>49</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H97" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Documentation/R Microsim Model - Parameter Dictionary.xlsx
+++ b/Documentation/R Microsim Model - Parameter Dictionary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="338">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -1165,8 +1165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I96" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I95" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I95"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -1457,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F10" sqref="A2:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,266 +3065,276 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="H76" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="5" t="b">
-        <v>1</v>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="F77" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>292</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
-      <c r="F78" s="5" t="s">
-        <v>39</v>
+      <c r="C78" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H78" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="F79" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="2"/>
-      <c r="F80" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H80" s="4"/>
+      <c r="C80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="5" t="b">
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="F81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H82" s="4">
         <v>1</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="2"/>
-      <c r="F82" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>310</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>311</v>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
       <c r="F86" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
       <c r="F87" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
-      <c r="F88" s="5" t="s">
-        <v>299</v>
+      <c r="C88" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="H88" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" s="5" t="b">
-        <v>1</v>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="F89" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H89" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="2"/>
+      <c r="C90" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F90" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H90" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>316</v>
+      <c r="C91" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>305</v>
@@ -3333,7 +3343,7 @@
         <v>67</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="H91" s="4">
         <v>0</v>
@@ -3341,65 +3351,65 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-      <c r="C92" s="2" t="s">
-        <v>317</v>
+      <c r="C92" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="F92" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0</v>
+        <v>334</v>
+      </c>
+      <c r="H92" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="5" t="b">
-        <v>1</v>
+      <c r="C93" s="1"/>
+      <c r="D93" s="2"/>
+      <c r="F93" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H93" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
+      <c r="C94" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F94" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H94" s="4"/>
+        <v>336</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>305</v>
@@ -3411,27 +3421,6 @@
         <v>336</v>
       </c>
       <c r="H95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H96" s="4">
         <v>0</v>
       </c>
     </row>
